--- a/Financials/Quarterly/VSPC_QTR_FIN.xlsx
+++ b/Financials/Quarterly/VSPC_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C56B0E-2C93-4EA4-8DDB-968EEAA06D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VSPC" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>VSPC</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,71 +689,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -730,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -739,15 +778,18 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -767,11 +809,14 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -796,11 +841,14 @@
       <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +860,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +890,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +922,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +954,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +986,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,13 +999,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -953,13 +1015,13 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -967,13 +1029,16 @@
       <c r="K17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -982,22 +1047,25 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,13 +1077,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1030,16 +1099,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1139,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1085,24 +1160,27 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1111,22 +1189,25 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1235,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,13 +1267,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1198,27 +1285,30 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1227,22 +1317,25 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1363,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1395,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1427,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,13 +1459,16 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1378,21 +1483,24 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1401,22 +1509,25 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,13 +1555,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1459,56 +1573,62 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1640,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1654,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1684,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,16 +1716,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -1608,8 +1736,8 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1620,8 +1748,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1780,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1667,24 +1801,27 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1696,19 +1833,22 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1876,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1908,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1940,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1972,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2004,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2036,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,13 +2068,16 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -1925,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -1934,13 +2095,16 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2116,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2130,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,13 +2155,16 @@
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2192,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2038,7 +2210,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2050,10 +2222,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2073,7 +2248,7 @@
         <v>900</v>
       </c>
       <c r="I60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
@@ -2081,8 +2256,11 @@
       <c r="K60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2288,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2320,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2352,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2384,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2416,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2247,7 +2440,7 @@
         <v>900</v>
       </c>
       <c r="I66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
@@ -2255,8 +2448,11 @@
       <c r="K66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2464,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2494,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2526,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2558,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2590,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2654,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2686,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,13 +2718,16 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
         <v>-900</v>
@@ -2515,22 +2736,25 @@
         <v>-900</v>
       </c>
       <c r="G76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="H76" s="3">
         <v>-800</v>
       </c>
       <c r="I76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-700</v>
       </c>
       <c r="K76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,47 +2782,53 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -2607,22 +2837,25 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2867,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2897,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2929,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2961,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2993,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3025,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3057,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2826,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -2837,8 +3089,11 @@
       <c r="K89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3105,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3135,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3167,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3199,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3231,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3247,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3277,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3309,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3341,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3373,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3113,19 +3394,22 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3437,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3467,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Financials/Quarterly/VSPC_QTR_FIN.xlsx
+++ b/Financials/Quarterly/VSPC_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C56B0E-2C93-4EA4-8DDB-968EEAA06D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="VSPC" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>VSPC</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,70 +654,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,10 +732,10 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -772,31 +744,37 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
@@ -812,23 +790,29 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -836,19 +820,25 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,8 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -989,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,13 +1108,15 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1102,16 +1134,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1142,8 +1180,14 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1163,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1172,42 +1216,54 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1398,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,13 +1560,19 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1486,48 +1590,60 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,8 +1791,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1687,8 +1825,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1719,8 +1863,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1730,20 +1880,20 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1751,31 +1901,37 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1783,8 +1939,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1804,31 +1966,37 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -1836,19 +2004,25 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,8 +2053,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1911,8 +2091,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2039,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,13 +2355,15 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
@@ -2158,13 +2384,19 @@
         <v>800</v>
       </c>
       <c r="K57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2195,13 +2427,19 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2213,10 +2451,10 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2225,15 +2463,21 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
@@ -2251,16 +2495,22 @@
         <v>900</v>
       </c>
       <c r="J60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2291,8 +2541,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2323,8 +2579,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,13 +2693,19 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>900</v>
@@ -2443,16 +2723,22 @@
         <v>900</v>
       </c>
       <c r="J66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-55000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-54500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-54400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-54300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-54200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-53900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-53400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-900</v>
       </c>
       <c r="F76" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G76" s="3">
         <v>-900</v>
       </c>
       <c r="H76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2900,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,8 +3452,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3069,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3081,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -3092,8 +3490,14 @@
       <c r="L89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3138,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3234,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3280,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,8 +3826,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3385,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3397,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3406,10 +3862,16 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3440,8 +3902,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3470,6 +3938,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>
